--- a/Simu results FIMLC/result tables fimlc.xlsx
+++ b/Simu results FIMLC/result tables fimlc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/SP PHD U3/missing-data-project-2/Simu results FIMLC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3517E3A3-560D-5F4A-B09A-3DCB961A8F81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BBF33BA-F546-6546-B5B9-C960422BF0D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="32740" windowHeight="20540" activeTab="1" xr2:uid="{99018751-301B-5642-8F70-4AA4BA502ADD}"/>
+    <workbookView xWindow="420" yWindow="460" windowWidth="32720" windowHeight="10600" activeTab="1" xr2:uid="{99018751-301B-5642-8F70-4AA4BA502ADD}"/>
   </bookViews>
   <sheets>
     <sheet name="MCAR, SF, 2CR" sheetId="1" r:id="rId1"/>
@@ -200,12 +200,18 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="13">
@@ -340,7 +346,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -453,6 +459,30 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3576,8 +3606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BDFC12A-0232-E749-A1FC-4609D3D6CA10}">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="22.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3707,34 +3737,34 @@
       <c r="A7" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="51">
         <v>1.5380257E-2</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="51">
         <v>3.0767816999999999E-2</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="51">
         <v>6.5550707E-2</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="51">
         <v>0.107155688</v>
       </c>
-      <c r="F7" s="46">
+      <c r="F7" s="52">
         <v>0.158804637</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="51">
         <v>1.6547604E-2</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="51">
         <v>2.88285E-2</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="51">
         <v>5.7688402999999999E-2</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="51">
         <v>9.3282107000000003E-2</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="51">
         <v>0.13316072300000001</v>
       </c>
     </row>
@@ -3742,34 +3772,34 @@
       <c r="A8" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="51">
         <v>2.2802435239747398E-2</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="51">
         <v>3.9411784092657901E-2</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="51">
         <v>7.3543897051717197E-2</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="51">
         <v>0.11689900592655</v>
       </c>
-      <c r="F8" s="46">
+      <c r="F8" s="49">
         <v>0.17317338252821299</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="51">
         <v>4.6546129835979298E-2</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="51">
         <v>5.7799146405234203E-2</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="51">
         <v>8.4777167746273502E-2</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="51">
         <v>0.12559536424291101</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="51">
         <v>0.18068476086243301</v>
       </c>
     </row>
@@ -3777,34 +3807,34 @@
       <c r="A9" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="51">
         <v>1.2467468547776301E-2</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="51">
         <v>2.74516353114778E-2</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="51">
         <v>6.5333176568311502E-2</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="51">
         <v>0.110679162790965</v>
       </c>
-      <c r="F9" s="46">
+      <c r="F9" s="52">
         <v>0.16795414210200099</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="51">
         <v>1.7673380825454499E-2</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="51">
         <v>2.86284620230935E-2</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="51">
         <v>6.3401074802953594E-2</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="51">
         <v>0.110730702863811</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="51">
         <v>0.169458154965933</v>
       </c>
     </row>
@@ -3812,34 +3842,34 @@
       <c r="A10" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="51">
         <v>1.47530464515928E-2</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="51">
         <v>3.0716229614489301E-2</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="51">
         <v>6.6927882380848402E-2</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="51">
         <v>0.10837038958732299</v>
       </c>
-      <c r="F10" s="46">
+      <c r="F10" s="52">
         <v>0.16438587182924699</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="51">
         <v>2.0784392249291201E-2</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="48">
         <v>3.3419031717155601E-2</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="51">
         <v>6.7029727805785602E-2</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="51">
         <v>0.109016087178051</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="51">
         <v>0.160942745306413</v>
       </c>
     </row>
@@ -3847,34 +3877,34 @@
       <c r="A11" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="51">
         <v>1.69918268026042E-2</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="48">
         <v>3.3930858658583002E-2</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="48">
         <v>7.0589815335168102E-2</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="51">
         <v>0.115138613473232</v>
       </c>
-      <c r="F11" s="46">
+      <c r="F11" s="52">
         <v>0.171992845706605</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="51">
         <v>2.21979390446959E-2</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="51">
         <v>3.6410515652237498E-2</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="51">
         <v>7.1938447043175105E-2</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="51">
         <v>0.117522737646546</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="51">
         <v>0.175219301835772</v>
       </c>
     </row>
@@ -3882,34 +3912,34 @@
       <c r="A12" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="51">
         <v>1.6463953141416899E-2</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="51">
         <v>3.3211471570221703E-2</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="51">
         <v>7.09702207771645E-2</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="51">
         <v>0.11459307963123699</v>
       </c>
-      <c r="F12" s="46">
+      <c r="F12" s="52">
         <v>0.17226876444611</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="51">
         <v>2.13299545858219E-2</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="51">
         <v>3.5290520739669401E-2</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="48">
         <v>7.0231385895136306E-2</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="51">
         <v>0.120195503068768</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="51">
         <v>0.17864564711758699</v>
       </c>
     </row>
@@ -3917,34 +3947,34 @@
       <c r="A13" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="48">
         <v>3.34844576986231E-3</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="51">
         <v>1.2575977975352801E-2</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="51">
         <v>4.7613884395517302E-2</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="51">
         <v>0.108614984244761</v>
       </c>
-      <c r="F13" s="46">
+      <c r="F13" s="52">
         <v>0.16810851045515099</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="48">
         <v>4.3782623416312502E-3</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="51">
         <v>1.0138500894831801E-2</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="51">
         <v>4.4194373933576198E-2</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="51">
         <v>0.12069298620166501</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K13" s="51">
         <v>0.18524330073279499</v>
       </c>
     </row>
@@ -3952,34 +3982,34 @@
       <c r="A14" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="35">
+      <c r="B14" s="53">
         <v>1.62092483865105E-2</v>
       </c>
-      <c r="C14" s="35">
+      <c r="C14" s="53">
         <v>3.3018436904314899E-2</v>
       </c>
-      <c r="D14" s="35">
+      <c r="D14" s="53">
         <v>7.0127234355396001E-2</v>
       </c>
-      <c r="E14" s="35">
+      <c r="E14" s="50">
         <v>0.114854889130364</v>
       </c>
-      <c r="F14" s="45">
+      <c r="F14" s="54">
         <v>0.17182610275527299</v>
       </c>
-      <c r="G14" s="35">
+      <c r="G14" s="53">
         <v>2.0877977870341E-2</v>
       </c>
-      <c r="H14" s="35">
+      <c r="H14" s="53">
         <v>3.5171773997615403E-2</v>
       </c>
-      <c r="I14" s="35">
+      <c r="I14" s="53">
         <v>7.1134681590568502E-2</v>
       </c>
-      <c r="J14" s="35">
+      <c r="J14" s="50">
         <v>0.11710946015950199</v>
       </c>
-      <c r="K14" s="35">
+      <c r="K14" s="50">
         <v>0.17489672697601899</v>
       </c>
     </row>
@@ -4051,7 +4081,7 @@
       <c r="E17" s="5">
         <v>0.11552433533209</v>
       </c>
-      <c r="F17" s="46">
+      <c r="F17" s="49">
         <v>0.17385506472691001</v>
       </c>
       <c r="G17" s="1">
@@ -4098,7 +4128,7 @@
       <c r="I18" s="1">
         <v>6.8558106816535999E-2</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J18" s="55">
         <v>0.114638002488858</v>
       </c>
       <c r="K18" s="1">
@@ -4147,13 +4177,13 @@
       <c r="B20" s="5">
         <v>9.3763170793480892E-3</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="48">
         <v>3.2579759513213E-2</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="48">
         <v>7.0221769527427605E-2</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="48">
         <v>0.1147855090974</v>
       </c>
       <c r="F20" s="46">
@@ -4162,7 +4192,7 @@
       <c r="G20" s="1">
         <v>1.10292478299899E-2</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H20" s="55">
         <v>3.1940998407443001E-2</v>
       </c>
       <c r="I20" s="1">
@@ -4200,7 +4230,7 @@
       <c r="H21" s="1">
         <v>3.1842084816466103E-2</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I21" s="55">
         <v>7.0983804216509294E-2</v>
       </c>
       <c r="J21" s="1">
@@ -4214,7 +4244,7 @@
       <c r="A22" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="48">
         <v>6.3322864921219E-3</v>
       </c>
       <c r="C22" s="5">
@@ -4229,7 +4259,7 @@
       <c r="F22" s="46">
         <v>0.170055365850037</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="55">
         <v>7.4030956684106803E-3</v>
       </c>
       <c r="H22" s="1">
@@ -4276,7 +4306,7 @@
       <c r="J23" s="1">
         <v>0.116921222154802</v>
       </c>
-      <c r="K23" s="1">
+      <c r="K23" s="55">
         <v>0.17551727743280901</v>
       </c>
     </row>
@@ -4339,13 +4369,13 @@
       <c r="B26" s="5">
         <v>8.5037965397059701E-3</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="48">
         <v>3.43366940616927E-2</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="48">
         <v>7.0959235761046194E-2</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="48">
         <v>0.114911481353487</v>
       </c>
       <c r="F26" s="46">
@@ -4398,7 +4428,7 @@
       <c r="J27" s="5">
         <v>0.115610981511375</v>
       </c>
-      <c r="K27" s="5">
+      <c r="K27" s="48">
         <v>0.17491187645740799</v>
       </c>
     </row>
@@ -4430,7 +4460,7 @@
       <c r="I28" s="5">
         <v>7.0280259105555604E-2</v>
       </c>
-      <c r="J28" s="5">
+      <c r="J28" s="48">
         <v>0.115315832732</v>
       </c>
       <c r="K28" s="5">
@@ -4459,7 +4489,7 @@
       <c r="G29" s="5">
         <v>6.6873394791886398E-3</v>
       </c>
-      <c r="H29" s="5">
+      <c r="H29" s="48">
         <v>3.3362801145125E-2</v>
       </c>
       <c r="I29" s="5">
@@ -4511,7 +4541,7 @@
       <c r="A31" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B31" s="48">
         <v>4.9664955978167297E-3</v>
       </c>
       <c r="C31" s="5">
@@ -4523,10 +4553,10 @@
       <c r="E31" s="5">
         <v>0.113658169960717</v>
       </c>
-      <c r="F31" s="46">
+      <c r="F31" s="49">
         <v>0.17516629195498901</v>
       </c>
-      <c r="G31" s="5">
+      <c r="G31" s="48">
         <v>5.5037984078771503E-3</v>
       </c>
       <c r="H31" s="5">
@@ -4567,7 +4597,7 @@
       <c r="H32" s="35">
         <v>3.33082960870398E-2</v>
       </c>
-      <c r="I32" s="35">
+      <c r="I32" s="50">
         <v>7.0972660979731705E-2</v>
       </c>
       <c r="J32" s="35">
@@ -4590,5 +4620,6 @@
     <mergeCell ref="G6:K6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Simu results FIMLC/result tables fimlc.xlsx
+++ b/Simu results FIMLC/result tables fimlc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/SP PHD U3/missing-data-project-2/Simu results FIMLC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E3CDBA2-1ED7-654C-B057-9219A8225407}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB984FE-2180-0D4A-8E1E-260FAD909801}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="32600" windowHeight="20540" activeTab="1" xr2:uid="{99018751-301B-5642-8F70-4AA4BA502ADD}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="32640" windowHeight="20540" xr2:uid="{99018751-301B-5642-8F70-4AA4BA502ADD}"/>
   </bookViews>
   <sheets>
     <sheet name="fit indices" sheetId="2" r:id="rId1"/>
@@ -126,30 +126,6 @@
   <si>
     <t xml:space="preserve">                            Conditions 
 CFI                            </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Details regarding the conditions presented in the tables below: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-Population model: two correlated factor model with 2 pairs of correlated residuals; the factor correlation is 0.8; the size of the correlated residual (CR) ranges from 0 to 0.4.
-Fitted model: two correlated factor model without correlated residuals. 
-Missing data: MCAR missing data on 4 variables. Place of misfit and place of missing data overlaps (i.e., it is the same-factor conditions in our previous study). The percent of missing data in each variable is either 20% or 50%.</t>
-    </r>
   </si>
   <si>
     <r>
@@ -591,6 +567,30 @@
     <t>fit.str.pos.def.vcov
 (Whether the vcov matrix for the structured model is positive definite)</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Details regarding the conditions presented in the tables below: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Population model: two correlated factor model with 2 pairs of correlated residuals; the factor correlation is 0.8; the size of the correlated residual (CR) ranges from 0 to 0.4.
+Fitted model: two correlated factor model without correlated residuals. 
+Missing data: MCAR missing data on 2 variables. Place of misfit and place of missing data overlaps (i.e., it is the same-factor conditions in our previous study). The percent of missing data in each variable is either 20% or 50%.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -935,8 +935,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -950,14 +956,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1628,8 +1628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BDFC12A-0232-E749-A1FC-4609D3D6CA10}">
   <dimension ref="A1:K74"/>
   <sheetViews>
-    <sheetView zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:K4"/>
+    <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="22.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1645,59 +1645,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="79" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
+      <c r="A1" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
     </row>
     <row r="2" spans="1:11" ht="222" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
+      <c r="A2" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
     </row>
     <row r="3" spans="1:11" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="52" t="s">
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
     </row>
     <row r="5" spans="1:11" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="51"/>
+      <c r="A5" s="53"/>
       <c r="B5" s="39" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="39" t="s">
         <v>15</v>
@@ -1709,10 +1709,10 @@
         <v>17</v>
       </c>
       <c r="F5" s="40" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G5" s="39" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H5" s="39" t="s">
         <v>15</v>
@@ -1724,7 +1724,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="40" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -1764,20 +1764,20 @@
     </row>
     <row r="7" spans="1:11" s="14" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="45"/>
-      <c r="B7" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54"/>
+      <c r="B7" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
     </row>
     <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="44" t="s">
@@ -1816,7 +1816,7 @@
     </row>
     <row r="9" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="44" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" s="17">
         <v>2.2802435239747398E-2</v>
@@ -1851,7 +1851,7 @@
     </row>
     <row r="10" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="44" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10" s="17">
         <v>1.2467468547776301E-2</v>
@@ -1886,7 +1886,7 @@
     </row>
     <row r="11" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="44" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11" s="17">
         <v>1.47530464515928E-2</v>
@@ -1921,7 +1921,7 @@
     </row>
     <row r="12" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="44" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" s="17">
         <v>1.69918268026042E-2</v>
@@ -1956,7 +1956,7 @@
     </row>
     <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="44" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B13" s="17">
         <v>1.6463953141416899E-2</v>
@@ -1991,7 +1991,7 @@
     </row>
     <row r="14" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="44" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B14" s="21">
         <v>3.34844576986231E-3</v>
@@ -2026,7 +2026,7 @@
     </row>
     <row r="15" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="44" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B15" s="19">
         <v>1.62092483865105E-2</v>
@@ -2061,20 +2061,20 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="42"/>
-      <c r="B16" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
+      <c r="B16" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
       <c r="F16" s="57"/>
-      <c r="G16" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
+      <c r="G16" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="49"/>
     </row>
     <row r="17" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="42" t="s">
@@ -2113,7 +2113,7 @@
     </row>
     <row r="18" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="44" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" s="3">
         <v>1.31368086525655E-2</v>
@@ -2148,7 +2148,7 @@
     </row>
     <row r="19" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="44" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B19" s="3">
         <v>8.2001665346887204E-3</v>
@@ -2183,7 +2183,7 @@
     </row>
     <row r="20" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="44" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B20" s="3">
         <v>8.8389030130558797E-3</v>
@@ -2218,7 +2218,7 @@
     </row>
     <row r="21" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="44" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B21" s="3">
         <v>9.3763170793480892E-3</v>
@@ -2253,7 +2253,7 @@
     </row>
     <row r="22" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="44" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B22" s="3">
         <v>9.2360156685843409E-3</v>
@@ -2288,7 +2288,7 @@
     </row>
     <row r="23" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="44" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B23" s="15">
         <v>6.3322864921219E-3</v>
@@ -2323,7 +2323,7 @@
     </row>
     <row r="24" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="44" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B24" s="3">
         <v>9.1746524447164808E-3</v>
@@ -2358,20 +2358,20 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="45"/>
-      <c r="B25" s="54" t="s">
+      <c r="B25" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="54"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="54" t="s">
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="H25" s="54"/>
-      <c r="I25" s="54"/>
-      <c r="J25" s="54"/>
-      <c r="K25" s="54"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="50"/>
     </row>
     <row r="26" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="44" t="s">
@@ -2410,7 +2410,7 @@
     </row>
     <row r="27" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="44" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B27" s="3">
         <v>8.5037965397059701E-3</v>
@@ -2445,7 +2445,7 @@
     </row>
     <row r="28" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="44" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" s="3">
         <v>5.5174742981007104E-3</v>
@@ -2480,7 +2480,7 @@
     </row>
     <row r="29" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="44" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B29" s="3">
         <v>5.7292917497945703E-3</v>
@@ -2515,7 +2515,7 @@
     </row>
     <row r="30" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="44" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B30" s="3">
         <v>5.8936436440310998E-3</v>
@@ -2550,7 +2550,7 @@
     </row>
     <row r="31" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="44" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B31" s="3">
         <v>5.8682526930632197E-3</v>
@@ -2585,7 +2585,7 @@
     </row>
     <row r="32" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="44" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B32" s="21">
         <v>4.9664955978167297E-3</v>
@@ -2620,7 +2620,7 @@
     </row>
     <row r="33" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="44" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B33" s="9">
         <v>5.8497866332356098E-3</v>
@@ -2654,41 +2654,41 @@
       </c>
     </row>
     <row r="35" spans="1:11" ht="116" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="B35" s="49"/>
-      <c r="C35" s="49"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="49"/>
-      <c r="H35" s="49"/>
-      <c r="I35" s="49"/>
-      <c r="J35" s="49"/>
-      <c r="K35" s="49"/>
+      <c r="A35" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" s="56"/>
+      <c r="C35" s="56"/>
+      <c r="D35" s="56"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="56"/>
+      <c r="G35" s="56"/>
+      <c r="H35" s="56"/>
+      <c r="I35" s="56"/>
+      <c r="J35" s="56"/>
+      <c r="K35" s="56"/>
     </row>
     <row r="42" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="50" t="s">
+      <c r="A42" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="B42" s="52" t="s">
+      <c r="B42" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="C42" s="52"/>
-      <c r="D42" s="52"/>
-      <c r="E42" s="52"/>
-      <c r="F42" s="53"/>
-      <c r="G42" s="52" t="s">
+      <c r="C42" s="54"/>
+      <c r="D42" s="54"/>
+      <c r="E42" s="54"/>
+      <c r="F42" s="55"/>
+      <c r="G42" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="H42" s="52"/>
-      <c r="I42" s="52"/>
-      <c r="J42" s="52"/>
-      <c r="K42" s="52"/>
+      <c r="H42" s="54"/>
+      <c r="I42" s="54"/>
+      <c r="J42" s="54"/>
+      <c r="K42" s="54"/>
     </row>
     <row r="43" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="51"/>
+      <c r="A43" s="53"/>
       <c r="B43" s="10" t="s">
         <v>5</v>
       </c>
@@ -2757,20 +2757,20 @@
     </row>
     <row r="45" spans="1:11" s="14" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="45"/>
-      <c r="B45" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="C45" s="54"/>
-      <c r="D45" s="54"/>
-      <c r="E45" s="54"/>
-      <c r="F45" s="55"/>
-      <c r="G45" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="H45" s="54"/>
-      <c r="I45" s="54"/>
-      <c r="J45" s="54"/>
-      <c r="K45" s="54"/>
+      <c r="B45" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" s="50"/>
+      <c r="D45" s="50"/>
+      <c r="E45" s="50"/>
+      <c r="F45" s="51"/>
+      <c r="G45" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="H45" s="50"/>
+      <c r="I45" s="50"/>
+      <c r="J45" s="50"/>
+      <c r="K45" s="50"/>
     </row>
     <row r="46" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="44" t="s">
@@ -2809,7 +2809,7 @@
     </row>
     <row r="47" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="44" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B47" s="3">
         <v>0.99080991989658096</v>
@@ -2844,7 +2844,7 @@
     </row>
     <row r="48" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="44" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B48" s="21">
         <v>0.99567964508192897</v>
@@ -2879,7 +2879,7 @@
     </row>
     <row r="49" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="44" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B49" s="3">
         <v>0.99132419724465703</v>
@@ -2914,7 +2914,7 @@
     </row>
     <row r="50" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="44" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B50" s="3">
         <v>0.99357219941997899</v>
@@ -2949,7 +2949,7 @@
     </row>
     <row r="51" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="44" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B51" s="3">
         <v>0.99385712100220402</v>
@@ -2984,7 +2984,7 @@
     </row>
     <row r="52" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="44" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B52" s="3">
         <v>0.97513992081034095</v>
@@ -3019,7 +3019,7 @@
     </row>
     <row r="53" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="44" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B53" s="9">
         <v>0.99395764445590595</v>
@@ -3054,20 +3054,20 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="42"/>
-      <c r="B54" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="C54" s="56"/>
-      <c r="D54" s="56"/>
-      <c r="E54" s="56"/>
+      <c r="B54" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" s="49"/>
+      <c r="D54" s="49"/>
+      <c r="E54" s="49"/>
       <c r="F54" s="57"/>
-      <c r="G54" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="H54" s="56"/>
-      <c r="I54" s="56"/>
-      <c r="J54" s="56"/>
-      <c r="K54" s="56"/>
+      <c r="G54" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="H54" s="49"/>
+      <c r="I54" s="49"/>
+      <c r="J54" s="49"/>
+      <c r="K54" s="49"/>
     </row>
     <row r="55" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="42" t="s">
@@ -3106,7 +3106,7 @@
     </row>
     <row r="56" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="44" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B56" s="28">
         <v>0.99675252204294296</v>
@@ -3141,7 +3141,7 @@
     </row>
     <row r="57" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="44" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B57" s="21">
         <v>0.99816662067406003</v>
@@ -3176,7 +3176,7 @@
     </row>
     <row r="58" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="44" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B58" s="28">
         <v>0.99762847846237002</v>
@@ -3211,7 +3211,7 @@
     </row>
     <row r="59" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="44" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B59" s="28">
         <v>0.99783387407396296</v>
@@ -3246,7 +3246,7 @@
     </row>
     <row r="60" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="44" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B60" s="28">
         <v>0.99783020561269997</v>
@@ -3281,7 +3281,7 @@
     </row>
     <row r="61" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="44" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B61" s="3">
         <v>0.96958457838853895</v>
@@ -3316,7 +3316,7 @@
     </row>
     <row r="62" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="44" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B62" s="28">
         <v>0.99789682274654301</v>
@@ -3351,20 +3351,20 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="45"/>
-      <c r="B63" s="54" t="s">
+      <c r="B63" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="C63" s="54"/>
-      <c r="D63" s="54"/>
-      <c r="E63" s="54"/>
-      <c r="F63" s="55"/>
-      <c r="G63" s="54" t="s">
+      <c r="C63" s="50"/>
+      <c r="D63" s="50"/>
+      <c r="E63" s="50"/>
+      <c r="F63" s="51"/>
+      <c r="G63" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="H63" s="54"/>
-      <c r="I63" s="54"/>
-      <c r="J63" s="54"/>
-      <c r="K63" s="54"/>
+      <c r="H63" s="50"/>
+      <c r="I63" s="50"/>
+      <c r="J63" s="50"/>
+      <c r="K63" s="50"/>
     </row>
     <row r="64" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="44" t="s">
@@ -3403,7 +3403,7 @@
     </row>
     <row r="65" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="44" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B65" s="28">
         <v>0.99852656592022704</v>
@@ -3438,7 +3438,7 @@
     </row>
     <row r="66" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="44" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B66" s="28">
         <v>0.99911650833439603</v>
@@ -3473,7 +3473,7 @@
     </row>
     <row r="67" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="44" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B67" s="28">
         <v>0.99899713344480501</v>
@@ -3508,7 +3508,7 @@
     </row>
     <row r="68" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="44" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B68" s="28">
         <v>0.999038898029325</v>
@@ -3543,7 +3543,7 @@
     </row>
     <row r="69" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="44" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B69" s="28">
         <v>0.999048101775319</v>
@@ -3578,7 +3578,7 @@
     </row>
     <row r="70" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="44" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B70" s="3">
         <v>0.98393650359470897</v>
@@ -3613,7 +3613,7 @@
     </row>
     <row r="71" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="44" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B71" s="29">
         <v>0.99905122988443695</v>
@@ -3647,28 +3647,22 @@
       </c>
     </row>
     <row r="74" spans="1:11" ht="104" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="49" t="s">
-        <v>31</v>
-      </c>
-      <c r="B74" s="49"/>
-      <c r="C74" s="49"/>
-      <c r="D74" s="49"/>
-      <c r="E74" s="49"/>
-      <c r="F74" s="49"/>
-      <c r="G74" s="49"/>
-      <c r="H74" s="49"/>
-      <c r="I74" s="49"/>
-      <c r="J74" s="49"/>
-      <c r="K74" s="49"/>
+      <c r="A74" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="B74" s="56"/>
+      <c r="C74" s="56"/>
+      <c r="D74" s="56"/>
+      <c r="E74" s="56"/>
+      <c r="F74" s="56"/>
+      <c r="G74" s="56"/>
+      <c r="H74" s="56"/>
+      <c r="I74" s="56"/>
+      <c r="J74" s="56"/>
+      <c r="K74" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="G54:K54"/>
-    <mergeCell ref="B63:F63"/>
-    <mergeCell ref="G63:K63"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:F42"/>
-    <mergeCell ref="G42:K42"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A35:K35"/>
@@ -3685,6 +3679,12 @@
     <mergeCell ref="B45:F45"/>
     <mergeCell ref="G45:K45"/>
     <mergeCell ref="B54:F54"/>
+    <mergeCell ref="G54:K54"/>
+    <mergeCell ref="B63:F63"/>
+    <mergeCell ref="G63:K63"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:F42"/>
+    <mergeCell ref="G42:K42"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3697,7 +3697,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF1177BC-5CF6-FC4F-A3B2-D6B5F4978BF5}">
   <dimension ref="A1:M206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A206" zoomScale="167" workbookViewId="0">
+    <sheetView topLeftCell="A194" zoomScale="167" workbookViewId="0">
       <selection activeCell="A206" sqref="A206:F206"/>
     </sheetView>
   </sheetViews>
@@ -3716,7 +3716,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="123" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="58" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B1" s="58"/>
       <c r="C1" s="58"/>
@@ -3785,24 +3785,24 @@
     </row>
     <row r="4" spans="1:13" s="14" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="45"/>
-      <c r="B4" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
+      <c r="B4" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
     </row>
     <row r="5" spans="1:13" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="42" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5" s="5">
         <v>0.999</v>
@@ -3837,7 +3837,7 @@
     </row>
     <row r="6" spans="1:13" ht="82" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6" s="5">
         <v>0.997</v>
@@ -3872,7 +3872,7 @@
     </row>
     <row r="7" spans="1:13" ht="89" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="42" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" s="34">
         <v>1</v>
@@ -3907,7 +3907,7 @@
     </row>
     <row r="8" spans="1:13" ht="68" x14ac:dyDescent="0.2">
       <c r="A8" s="42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" s="34">
         <v>1</v>
@@ -3942,7 +3942,7 @@
     </row>
     <row r="9" spans="1:13" ht="68" x14ac:dyDescent="0.2">
       <c r="A9" s="42" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B9" s="34">
         <v>1</v>
@@ -3977,7 +3977,7 @@
     </row>
     <row r="10" spans="1:13" ht="85" x14ac:dyDescent="0.2">
       <c r="A10" s="47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5">
         <v>0</v>
@@ -4012,7 +4012,7 @@
     </row>
     <row r="11" spans="1:13" ht="85" x14ac:dyDescent="0.2">
       <c r="A11" s="46" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B11" s="5">
         <v>0</v>
@@ -4047,7 +4047,7 @@
     </row>
     <row r="12" spans="1:13" ht="85" x14ac:dyDescent="0.2">
       <c r="A12" s="42" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B12" s="34">
         <v>1</v>
@@ -4082,7 +4082,7 @@
     </row>
     <row r="13" spans="1:13" ht="68" x14ac:dyDescent="0.2">
       <c r="A13" s="42" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B13" s="34">
         <v>1</v>
@@ -4117,7 +4117,7 @@
     </row>
     <row r="14" spans="1:13" ht="68" x14ac:dyDescent="0.2">
       <c r="A14" s="42" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B14" s="34">
         <v>1</v>
@@ -4152,7 +4152,7 @@
     </row>
     <row r="15" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" s="42" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B15" s="34">
         <v>1</v>
@@ -4187,7 +4187,7 @@
     </row>
     <row r="16" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" s="42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B16" s="34">
         <v>1</v>
@@ -4222,7 +4222,7 @@
     </row>
     <row r="17" spans="1:11" ht="77" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="42" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B17" s="34">
         <v>1</v>
@@ -4257,7 +4257,7 @@
     </row>
     <row r="18" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" s="42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B18" s="34">
         <v>1</v>
@@ -4292,7 +4292,7 @@
     </row>
     <row r="19" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B19" s="34">
         <v>1</v>
@@ -4327,7 +4327,7 @@
     </row>
     <row r="20" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" s="42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B20" s="34">
         <v>0.97599999999999998</v>
@@ -4362,7 +4362,7 @@
     </row>
     <row r="21" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" s="42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B21" s="34">
         <v>0.84499999999999997</v>
@@ -4397,7 +4397,7 @@
     </row>
     <row r="22" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A22" s="42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B22" s="34">
         <v>0.55500000000000005</v>
@@ -4432,7 +4432,7 @@
     </row>
     <row r="23" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A23" s="42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B23" s="34">
         <v>1</v>
@@ -4467,7 +4467,7 @@
     </row>
     <row r="24" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A24" s="42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B24" s="34">
         <v>1</v>
@@ -4502,7 +4502,7 @@
     </row>
     <row r="25" spans="1:11" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B25" s="34">
         <v>0.98199999999999998</v>
@@ -4537,7 +4537,7 @@
     </row>
     <row r="26" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" s="42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B26" s="5">
         <v>0.57299999999999995</v>
@@ -4572,7 +4572,7 @@
     </row>
     <row r="27" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A27" s="42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B27" s="34">
         <v>0.78200000000000003</v>
@@ -4607,7 +4607,7 @@
     </row>
     <row r="28" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A28" s="42" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B28" s="34">
         <v>1</v>
@@ -4642,7 +4642,7 @@
     </row>
     <row r="29" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A29" s="42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B29" s="34">
         <v>1</v>
@@ -4677,7 +4677,7 @@
     </row>
     <row r="30" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" s="46" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B30" s="5">
         <v>0.53400000000000003</v>
@@ -4712,7 +4712,7 @@
     </row>
     <row r="31" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" s="46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B31" s="5">
         <v>0.45900000000000002</v>
@@ -4747,7 +4747,7 @@
     </row>
     <row r="32" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" s="48" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B32" s="34">
         <v>0.98699999999999999</v>
@@ -4782,7 +4782,7 @@
     </row>
     <row r="33" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A33" s="48" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B33" s="34">
         <v>0.88900000000000001</v>
@@ -4817,7 +4817,7 @@
     </row>
     <row r="34" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A34" s="42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B34" s="34">
         <v>1</v>
@@ -4852,7 +4852,7 @@
     </row>
     <row r="35" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B35" s="34">
         <v>1</v>
@@ -4887,7 +4887,7 @@
     </row>
     <row r="36" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A36" s="42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B36" s="34">
         <v>1</v>
@@ -4922,7 +4922,7 @@
     </row>
     <row r="37" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A37" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B37" s="34">
         <v>1</v>
@@ -4957,7 +4957,7 @@
     </row>
     <row r="38" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A38" s="42" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B38" s="34">
         <v>1</v>
@@ -4992,7 +4992,7 @@
     </row>
     <row r="39" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A39" s="42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B39" s="34">
         <v>1</v>
@@ -5027,7 +5027,7 @@
     </row>
     <row r="40" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A40" s="42" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B40" s="34">
         <v>1</v>
@@ -5062,7 +5062,7 @@
     </row>
     <row r="41" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A41" s="42" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B41" s="34">
         <v>1</v>
@@ -5097,7 +5097,7 @@
     </row>
     <row r="42" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A42" s="42" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B42" s="34">
         <v>1</v>
@@ -5132,7 +5132,7 @@
     </row>
     <row r="43" spans="1:11" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="42" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B43" s="34">
         <v>1</v>
@@ -5167,7 +5167,7 @@
     </row>
     <row r="44" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A44" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B44" s="34">
         <v>1</v>
@@ -5202,7 +5202,7 @@
     </row>
     <row r="45" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A45" s="42" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B45" s="34">
         <v>1</v>
@@ -5237,7 +5237,7 @@
     </row>
     <row r="46" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A46" s="42" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B46" s="34">
         <v>1</v>
@@ -5272,7 +5272,7 @@
     </row>
     <row r="47" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A47" s="42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B47" s="5">
         <v>0.58799999999999997</v>
@@ -5307,7 +5307,7 @@
     </row>
     <row r="48" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A48" s="42" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B48" s="34">
         <v>1</v>
@@ -5342,7 +5342,7 @@
     </row>
     <row r="49" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A49" s="42" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B49" s="5">
         <v>0.47599999999999998</v>
@@ -5377,7 +5377,7 @@
     </row>
     <row r="50" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A50" s="46" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B50" s="5">
         <v>0.45600000000000002</v>
@@ -5412,7 +5412,7 @@
     </row>
     <row r="51" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="46" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B51" s="5">
         <v>0.34100000000000003</v>
@@ -5447,7 +5447,7 @@
     </row>
     <row r="52" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" s="42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B52" s="34">
         <v>1</v>
@@ -5482,7 +5482,7 @@
     </row>
     <row r="53" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B53" s="34">
         <v>1</v>
@@ -5517,7 +5517,7 @@
     </row>
     <row r="54" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="42" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B54" s="5">
         <v>0.58799999999999997</v>
@@ -5552,7 +5552,7 @@
     </row>
     <row r="55" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A55" s="42" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B55" s="34">
         <v>0</v>
@@ -5587,7 +5587,7 @@
     </row>
     <row r="56" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A56" s="42" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B56" s="34">
         <v>0</v>
@@ -5622,10 +5622,10 @@
     </row>
     <row r="57" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A57" s="42" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B57" s="34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C57" s="34">
         <v>0</v>
@@ -5657,7 +5657,7 @@
     </row>
     <row r="58" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A58" s="42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B58" s="34">
         <v>0</v>
@@ -5692,7 +5692,7 @@
     </row>
     <row r="59" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A59" s="46" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B59" s="5">
         <v>2.4E-2</v>
@@ -5727,7 +5727,7 @@
     </row>
     <row r="60" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A60" s="42" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B60" s="34">
         <v>0</v>
@@ -5762,7 +5762,7 @@
     </row>
     <row r="61" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A61" s="42" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B61" s="34">
         <v>0</v>
@@ -5797,7 +5797,7 @@
     </row>
     <row r="62" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A62" s="42" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B62" s="34">
         <v>0</v>
@@ -5832,7 +5832,7 @@
     </row>
     <row r="63" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A63" s="42" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B63" s="34">
         <v>0.44400000000000001</v>
@@ -5867,7 +5867,7 @@
     </row>
     <row r="64" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A64" s="42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B64" s="34">
         <v>0.29299999999999998</v>
@@ -5902,7 +5902,7 @@
     </row>
     <row r="65" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A65" s="42" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B65" s="34">
         <v>0.438</v>
@@ -5937,7 +5937,7 @@
     </row>
     <row r="66" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A66" s="42" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B66" s="34">
         <v>0.54300000000000004</v>
@@ -5972,7 +5972,7 @@
     </row>
     <row r="67" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A67" s="42" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B67" s="34">
         <v>0.83199999999999996</v>
@@ -6007,7 +6007,7 @@
     </row>
     <row r="68" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A68" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B68" s="34">
         <v>0.48</v>
@@ -6042,7 +6042,7 @@
     </row>
     <row r="69" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A69" s="42" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B69" s="34">
         <v>0.44400000000000001</v>
@@ -6077,7 +6077,7 @@
     </row>
     <row r="70" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A70" s="42" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B70" s="34">
         <v>0.42799999999999999</v>
@@ -6112,24 +6112,24 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="45"/>
-      <c r="B71" s="54" t="s">
-        <v>1</v>
-      </c>
-      <c r="C71" s="54"/>
-      <c r="D71" s="54"/>
-      <c r="E71" s="54"/>
-      <c r="F71" s="55"/>
-      <c r="G71" s="54" t="s">
-        <v>1</v>
-      </c>
-      <c r="H71" s="54"/>
-      <c r="I71" s="54"/>
-      <c r="J71" s="54"/>
-      <c r="K71" s="54"/>
+      <c r="B71" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="C71" s="50"/>
+      <c r="D71" s="50"/>
+      <c r="E71" s="50"/>
+      <c r="F71" s="51"/>
+      <c r="G71" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H71" s="50"/>
+      <c r="I71" s="50"/>
+      <c r="J71" s="50"/>
+      <c r="K71" s="50"/>
     </row>
     <row r="72" spans="1:11" ht="85" x14ac:dyDescent="0.2">
       <c r="A72" s="42" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B72" s="34">
         <v>1</v>
@@ -6164,7 +6164,7 @@
     </row>
     <row r="73" spans="1:11" ht="85" x14ac:dyDescent="0.2">
       <c r="A73" s="42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B73" s="34">
         <v>1</v>
@@ -6199,7 +6199,7 @@
     </row>
     <row r="74" spans="1:11" ht="85" x14ac:dyDescent="0.2">
       <c r="A74" s="42" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B74" s="34">
         <v>1</v>
@@ -6234,7 +6234,7 @@
     </row>
     <row r="75" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A75" s="42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B75" s="34">
         <v>1</v>
@@ -6269,7 +6269,7 @@
     </row>
     <row r="76" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A76" s="42" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B76" s="34">
         <v>1</v>
@@ -6304,7 +6304,7 @@
     </row>
     <row r="77" spans="1:11" ht="85" x14ac:dyDescent="0.2">
       <c r="A77" s="47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B77" s="5">
         <v>0</v>
@@ -6339,7 +6339,7 @@
     </row>
     <row r="78" spans="1:11" ht="102" x14ac:dyDescent="0.2">
       <c r="A78" s="46" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B78" s="5">
         <v>0</v>
@@ -6374,7 +6374,7 @@
     </row>
     <row r="79" spans="1:11" ht="102" x14ac:dyDescent="0.2">
       <c r="A79" s="42" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B79" s="34">
         <v>1</v>
@@ -6409,7 +6409,7 @@
     </row>
     <row r="80" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A80" s="42" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B80" s="34">
         <v>1</v>
@@ -6444,7 +6444,7 @@
     </row>
     <row r="81" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A81" s="42" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B81" s="34">
         <v>1</v>
@@ -6479,7 +6479,7 @@
     </row>
     <row r="82" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A82" s="42" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B82" s="34">
         <v>1</v>
@@ -6514,7 +6514,7 @@
     </row>
     <row r="83" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A83" s="42" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B83" s="34">
         <v>1</v>
@@ -6549,7 +6549,7 @@
     </row>
     <row r="84" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A84" s="42" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B84" s="34">
         <v>1</v>
@@ -6584,7 +6584,7 @@
     </row>
     <row r="85" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A85" s="42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B85" s="34">
         <v>1</v>
@@ -6619,7 +6619,7 @@
     </row>
     <row r="86" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A86" s="42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B86" s="34">
         <v>1</v>
@@ -6654,7 +6654,7 @@
     </row>
     <row r="87" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A87" s="42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B87" s="34">
         <v>0.98</v>
@@ -6689,7 +6689,7 @@
     </row>
     <row r="88" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A88" s="42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B88" s="34">
         <v>0.83199999999999996</v>
@@ -6724,7 +6724,7 @@
     </row>
     <row r="89" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A89" s="42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B89" s="5">
         <v>0.52400000000000002</v>
@@ -6759,7 +6759,7 @@
     </row>
     <row r="90" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A90" s="42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B90" s="34">
         <v>0.999</v>
@@ -6794,7 +6794,7 @@
     </row>
     <row r="91" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A91" s="42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B91" s="34">
         <v>1</v>
@@ -6829,7 +6829,7 @@
     </row>
     <row r="92" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A92" s="42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B92" s="34">
         <v>1</v>
@@ -6864,7 +6864,7 @@
     </row>
     <row r="93" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A93" s="46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B93" s="5">
         <v>0.69399999999999995</v>
@@ -6899,7 +6899,7 @@
     </row>
     <row r="94" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A94" s="42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B94" s="34">
         <v>0.96399999999999997</v>
@@ -6934,7 +6934,7 @@
     </row>
     <row r="95" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A95" s="42" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B95" s="34">
         <v>1</v>
@@ -6969,7 +6969,7 @@
     </row>
     <row r="96" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A96" s="42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B96" s="34">
         <v>1</v>
@@ -7004,7 +7004,7 @@
     </row>
     <row r="97" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A97" s="46" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B97" s="5">
         <v>0.55000000000000004</v>
@@ -7039,7 +7039,7 @@
     </row>
     <row r="98" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A98" s="46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B98" s="5">
         <v>0.51600000000000001</v>
@@ -7074,7 +7074,7 @@
     </row>
     <row r="99" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A99" s="46" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B99" s="34">
         <v>1</v>
@@ -7109,7 +7109,7 @@
     </row>
     <row r="100" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A100" s="46" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B100" s="34">
         <v>0.92700000000000005</v>
@@ -7144,7 +7144,7 @@
     </row>
     <row r="101" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A101" s="42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B101" s="34">
         <v>1</v>
@@ -7179,7 +7179,7 @@
     </row>
     <row r="102" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A102" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B102" s="34">
         <v>1</v>
@@ -7214,7 +7214,7 @@
     </row>
     <row r="103" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A103" s="42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B103" s="34">
         <v>1</v>
@@ -7249,7 +7249,7 @@
     </row>
     <row r="104" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A104" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B104" s="34">
         <v>1</v>
@@ -7284,7 +7284,7 @@
     </row>
     <row r="105" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A105" s="42" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B105" s="34">
         <v>1</v>
@@ -7319,7 +7319,7 @@
     </row>
     <row r="106" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A106" s="42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B106" s="34">
         <v>1</v>
@@ -7354,7 +7354,7 @@
     </row>
     <row r="107" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A107" s="42" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B107" s="34">
         <v>1</v>
@@ -7389,7 +7389,7 @@
     </row>
     <row r="108" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A108" s="42" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B108" s="34">
         <v>1</v>
@@ -7424,7 +7424,7 @@
     </row>
     <row r="109" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A109" s="42" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B109" s="34">
         <v>1</v>
@@ -7459,7 +7459,7 @@
     </row>
     <row r="110" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A110" s="42" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B110" s="34">
         <v>1</v>
@@ -7494,7 +7494,7 @@
     </row>
     <row r="111" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A111" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B111" s="34">
         <v>1</v>
@@ -7529,7 +7529,7 @@
     </row>
     <row r="112" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A112" s="42" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B112" s="34">
         <v>1</v>
@@ -7564,7 +7564,7 @@
     </row>
     <row r="113" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A113" s="42" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B113" s="34">
         <v>1</v>
@@ -7599,7 +7599,7 @@
     </row>
     <row r="114" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A114" s="42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B114" s="5">
         <v>0.46800000000000003</v>
@@ -7634,7 +7634,7 @@
     </row>
     <row r="115" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A115" s="42" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B115" s="34">
         <v>1</v>
@@ -7669,7 +7669,7 @@
     </row>
     <row r="116" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A116" s="42" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B116" s="34">
         <v>0.435</v>
@@ -7704,7 +7704,7 @@
     </row>
     <row r="117" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A117" s="46" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B117" s="5">
         <v>0.67300000000000004</v>
@@ -7739,7 +7739,7 @@
     </row>
     <row r="118" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A118" s="46" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B118" s="5">
         <v>0.443</v>
@@ -7774,7 +7774,7 @@
     </row>
     <row r="119" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A119" s="42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B119" s="34">
         <v>1</v>
@@ -7809,7 +7809,7 @@
     </row>
     <row r="120" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A120" s="42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B120" s="34">
         <v>1</v>
@@ -7844,7 +7844,7 @@
     </row>
     <row r="121" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A121" s="42" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B121" s="5">
         <v>0.46800000000000003</v>
@@ -7879,7 +7879,7 @@
     </row>
     <row r="122" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A122" s="42" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B122" s="34">
         <v>0</v>
@@ -7914,7 +7914,7 @@
     </row>
     <row r="123" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A123" s="42" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B123" s="34">
         <v>0</v>
@@ -7949,7 +7949,7 @@
     </row>
     <row r="124" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A124" s="42" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B124" s="34">
         <v>0</v>
@@ -7984,7 +7984,7 @@
     </row>
     <row r="125" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A125" s="42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B125" s="34">
         <v>0</v>
@@ -8019,7 +8019,7 @@
     </row>
     <row r="126" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A126" s="46" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B126" s="5">
         <v>2.9000000000000001E-2</v>
@@ -8054,7 +8054,7 @@
     </row>
     <row r="127" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A127" s="42" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B127" s="34">
         <v>0</v>
@@ -8089,7 +8089,7 @@
     </row>
     <row r="128" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A128" s="42" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B128" s="34">
         <v>0</v>
@@ -8124,7 +8124,7 @@
     </row>
     <row r="129" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A129" s="42" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B129" s="34">
         <v>0</v>
@@ -8159,7 +8159,7 @@
     </row>
     <row r="130" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A130" s="42" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B130" s="34">
         <v>0.48799999999999999</v>
@@ -8194,7 +8194,7 @@
     </row>
     <row r="131" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A131" s="42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B131" s="34">
         <v>0.33100000000000002</v>
@@ -8229,7 +8229,7 @@
     </row>
     <row r="132" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A132" s="42" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B132" s="34">
         <v>0.47499999999999998</v>
@@ -8264,7 +8264,7 @@
     </row>
     <row r="133" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A133" s="42" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B133" s="34">
         <v>0.51800000000000002</v>
@@ -8299,7 +8299,7 @@
     </row>
     <row r="134" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A134" s="42" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B134" s="34">
         <v>0.61099999999999999</v>
@@ -8334,7 +8334,7 @@
     </row>
     <row r="135" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A135" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B135" s="34">
         <v>0.498</v>
@@ -8369,7 +8369,7 @@
     </row>
     <row r="136" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A136" s="42" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B136" s="34">
         <v>0.47599999999999998</v>
@@ -8404,7 +8404,7 @@
     </row>
     <row r="137" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A137" s="42" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B137" s="34">
         <v>0.47399999999999998</v>
@@ -8439,24 +8439,24 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A138" s="45"/>
-      <c r="B138" s="54" t="s">
+      <c r="B138" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="C138" s="54"/>
-      <c r="D138" s="54"/>
-      <c r="E138" s="54"/>
-      <c r="F138" s="55"/>
-      <c r="G138" s="54" t="s">
+      <c r="C138" s="50"/>
+      <c r="D138" s="50"/>
+      <c r="E138" s="50"/>
+      <c r="F138" s="51"/>
+      <c r="G138" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="H138" s="54"/>
-      <c r="I138" s="54"/>
-      <c r="J138" s="54"/>
-      <c r="K138" s="54"/>
+      <c r="H138" s="50"/>
+      <c r="I138" s="50"/>
+      <c r="J138" s="50"/>
+      <c r="K138" s="50"/>
     </row>
     <row r="139" spans="1:11" ht="85" x14ac:dyDescent="0.2">
       <c r="A139" s="42" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B139" s="34">
         <v>1</v>
@@ -8491,7 +8491,7 @@
     </row>
     <row r="140" spans="1:11" ht="85" x14ac:dyDescent="0.2">
       <c r="A140" s="42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B140" s="34">
         <v>1</v>
@@ -8526,7 +8526,7 @@
     </row>
     <row r="141" spans="1:11" ht="85" x14ac:dyDescent="0.2">
       <c r="A141" s="42" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B141" s="34">
         <v>1</v>
@@ -8561,7 +8561,7 @@
     </row>
     <row r="142" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A142" s="42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B142" s="34">
         <v>1</v>
@@ -8596,7 +8596,7 @@
     </row>
     <row r="143" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A143" s="42" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B143" s="34">
         <v>1</v>
@@ -8631,7 +8631,7 @@
     </row>
     <row r="144" spans="1:11" s="6" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A144" s="47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B144" s="5">
         <v>0</v>
@@ -8666,7 +8666,7 @@
     </row>
     <row r="145" spans="1:11" s="6" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A145" s="46" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B145" s="5">
         <v>0</v>
@@ -8701,7 +8701,7 @@
     </row>
     <row r="146" spans="1:11" ht="102" x14ac:dyDescent="0.2">
       <c r="A146" s="42" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B146" s="34">
         <v>1</v>
@@ -8736,7 +8736,7 @@
     </row>
     <row r="147" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A147" s="42" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B147" s="34">
         <v>1</v>
@@ -8771,7 +8771,7 @@
     </row>
     <row r="148" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A148" s="42" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B148" s="34">
         <v>1</v>
@@ -8806,7 +8806,7 @@
     </row>
     <row r="149" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A149" s="42" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B149" s="34">
         <v>1</v>
@@ -8841,7 +8841,7 @@
     </row>
     <row r="150" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A150" s="42" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B150" s="34">
         <v>1</v>
@@ -8876,7 +8876,7 @@
     </row>
     <row r="151" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A151" s="42" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B151" s="34">
         <v>1</v>
@@ -8911,7 +8911,7 @@
     </row>
     <row r="152" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A152" s="42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B152" s="34">
         <v>1</v>
@@ -8946,7 +8946,7 @@
     </row>
     <row r="153" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A153" s="42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B153" s="34">
         <v>1</v>
@@ -8981,7 +8981,7 @@
     </row>
     <row r="154" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A154" s="42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B154" s="34">
         <v>0.97699999999999998</v>
@@ -9016,7 +9016,7 @@
     </row>
     <row r="155" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A155" s="42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B155" s="34">
         <v>0.81699999999999995</v>
@@ -9051,7 +9051,7 @@
     </row>
     <row r="156" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A156" s="42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B156" s="5">
         <v>0.48399999999999999</v>
@@ -9086,7 +9086,7 @@
     </row>
     <row r="157" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A157" s="42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B157" s="34">
         <v>1</v>
@@ -9121,7 +9121,7 @@
     </row>
     <row r="158" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A158" s="42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B158" s="34">
         <v>1</v>
@@ -9156,7 +9156,7 @@
     </row>
     <row r="159" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A159" s="42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B159" s="34">
         <v>1</v>
@@ -9191,7 +9191,7 @@
     </row>
     <row r="160" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A160" s="46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B160" s="34">
         <v>0.78500000000000003</v>
@@ -9226,7 +9226,7 @@
     </row>
     <row r="161" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A161" s="42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B161" s="34">
         <v>1</v>
@@ -9261,7 +9261,7 @@
     </row>
     <row r="162" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A162" s="42" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B162" s="34">
         <v>1</v>
@@ -9296,7 +9296,7 @@
     </row>
     <row r="163" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A163" s="42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B163" s="34">
         <v>1</v>
@@ -9331,7 +9331,7 @@
     </row>
     <row r="164" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A164" s="46" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B164" s="5">
         <v>0.56599999999999995</v>
@@ -9366,7 +9366,7 @@
     </row>
     <row r="165" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A165" s="46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B165" s="5">
         <v>0.54600000000000004</v>
@@ -9401,7 +9401,7 @@
     </row>
     <row r="166" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A166" s="46" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B166" s="34">
         <v>1</v>
@@ -9436,7 +9436,7 @@
     </row>
     <row r="167" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A167" s="46" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B167" s="34">
         <v>0.95199999999999996</v>
@@ -9471,7 +9471,7 @@
     </row>
     <row r="168" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A168" s="42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B168" s="34">
         <v>1</v>
@@ -9506,7 +9506,7 @@
     </row>
     <row r="169" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A169" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B169" s="34">
         <v>1</v>
@@ -9541,7 +9541,7 @@
     </row>
     <row r="170" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A170" s="42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B170" s="34">
         <v>1</v>
@@ -9576,7 +9576,7 @@
     </row>
     <row r="171" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A171" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B171" s="34">
         <v>1</v>
@@ -9611,7 +9611,7 @@
     </row>
     <row r="172" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A172" s="42" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B172" s="34">
         <v>1</v>
@@ -9646,7 +9646,7 @@
     </row>
     <row r="173" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A173" s="42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B173" s="34">
         <v>1</v>
@@ -9681,7 +9681,7 @@
     </row>
     <row r="174" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A174" s="42" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B174" s="34">
         <v>1</v>
@@ -9716,7 +9716,7 @@
     </row>
     <row r="175" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A175" s="42" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B175" s="34">
         <v>1</v>
@@ -9751,7 +9751,7 @@
     </row>
     <row r="176" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A176" s="42" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B176" s="34">
         <v>1</v>
@@ -9786,7 +9786,7 @@
     </row>
     <row r="177" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A177" s="42" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B177" s="34">
         <v>1</v>
@@ -9821,7 +9821,7 @@
     </row>
     <row r="178" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A178" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B178" s="34">
         <v>1</v>
@@ -9856,7 +9856,7 @@
     </row>
     <row r="179" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A179" s="42" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B179" s="34">
         <v>1</v>
@@ -9891,7 +9891,7 @@
     </row>
     <row r="180" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A180" s="42" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B180" s="34">
         <v>1</v>
@@ -9926,7 +9926,7 @@
     </row>
     <row r="181" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A181" s="42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B181" s="5">
         <v>0.50600000000000001</v>
@@ -9961,7 +9961,7 @@
     </row>
     <row r="182" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A182" s="42" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B182" s="34">
         <v>1</v>
@@ -9996,7 +9996,7 @@
     </row>
     <row r="183" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A183" s="42" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B183" s="5">
         <v>0.40699999999999997</v>
@@ -10031,7 +10031,7 @@
     </row>
     <row r="184" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A184" s="46" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B184" s="5">
         <v>0.78500000000000003</v>
@@ -10066,7 +10066,7 @@
     </row>
     <row r="185" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A185" s="46" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B185" s="5">
         <v>0.498</v>
@@ -10101,7 +10101,7 @@
     </row>
     <row r="186" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A186" s="42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B186" s="34">
         <v>1</v>
@@ -10136,7 +10136,7 @@
     </row>
     <row r="187" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A187" s="42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B187" s="34">
         <v>1</v>
@@ -10171,7 +10171,7 @@
     </row>
     <row r="188" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A188" s="42" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B188" s="5">
         <v>0.50600000000000001</v>
@@ -10206,7 +10206,7 @@
     </row>
     <row r="189" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A189" s="42" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B189" s="34">
         <v>0</v>
@@ -10241,7 +10241,7 @@
     </row>
     <row r="190" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A190" s="42" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B190" s="34">
         <v>0</v>
@@ -10276,7 +10276,7 @@
     </row>
     <row r="191" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A191" s="42" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B191" s="34">
         <v>0</v>
@@ -10311,7 +10311,7 @@
     </row>
     <row r="192" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A192" s="42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B192" s="34">
         <v>0</v>
@@ -10346,7 +10346,7 @@
     </row>
     <row r="193" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A193" s="46" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B193" s="5">
         <v>1.4999999999999999E-2</v>
@@ -10381,7 +10381,7 @@
     </row>
     <row r="194" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A194" s="42" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B194" s="34">
         <v>0</v>
@@ -10416,7 +10416,7 @@
     </row>
     <row r="195" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A195" s="42" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B195" s="34">
         <v>0</v>
@@ -10451,7 +10451,7 @@
     </row>
     <row r="196" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A196" s="42" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B196" s="34">
         <v>0</v>
@@ -10486,7 +10486,7 @@
     </row>
     <row r="197" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A197" s="42" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B197" s="34">
         <v>0.52900000000000003</v>
@@ -10521,7 +10521,7 @@
     </row>
     <row r="198" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A198" s="42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B198" s="34">
         <v>0.36899999999999999</v>
@@ -10556,7 +10556,7 @@
     </row>
     <row r="199" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A199" s="42" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B199" s="34">
         <v>0.53200000000000003</v>
@@ -10591,7 +10591,7 @@
     </row>
     <row r="200" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A200" s="42" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B200" s="34">
         <v>0.55100000000000005</v>
@@ -10626,7 +10626,7 @@
     </row>
     <row r="201" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A201" s="42" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B201" s="34">
         <v>0.59099999999999997</v>
@@ -10661,7 +10661,7 @@
     </row>
     <row r="202" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A202" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B202" s="34">
         <v>0.54</v>
@@ -10696,7 +10696,7 @@
     </row>
     <row r="203" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A203" s="42" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B203" s="34">
         <v>0.53200000000000003</v>
@@ -10731,7 +10731,7 @@
     </row>
     <row r="204" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A204" s="42" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B204" s="37">
         <v>0.53300000000000003</v>
@@ -10766,7 +10766,7 @@
     </row>
     <row r="206" spans="1:11" ht="179" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="58" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B206" s="58"/>
       <c r="C206" s="58"/>
